--- a/patient_data/patient_67.xlsx
+++ b/patient_data/patient_67.xlsx
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1060,16 +1060,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
